--- a/Code/Results/Cases/Case_1_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_142/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9930084505699148</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.025507051647289</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9962096142533021</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9909409138966846</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.028047310659273</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9983654513757799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.028332420894459</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9991234862284134</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9938713082539624</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9997832448308503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.000101573784634</v>
+      </c>
+      <c r="D3">
+        <v>1.026019325364456</v>
+      </c>
+      <c r="E3">
+        <v>1.002539632169409</v>
+      </c>
+      <c r="F3">
+        <v>0.998800783312061</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.028114196249099</v>
+      </c>
+      <c r="J3">
+        <v>1.005049629549494</v>
+      </c>
+      <c r="K3">
+        <v>1.02865281339994</v>
+      </c>
+      <c r="L3">
+        <v>1.005238523595308</v>
+      </c>
+      <c r="M3">
+        <v>1.001510397609223</v>
+      </c>
+      <c r="N3">
+        <v>1.006476915304258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.004577625974288</v>
+      </c>
+      <c r="D4">
+        <v>1.026344013162027</v>
+      </c>
+      <c r="E4">
+        <v>1.006530450827754</v>
+      </c>
+      <c r="F4">
+        <v>1.00376477868173</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.028152502439901</v>
+      </c>
+      <c r="J4">
+        <v>1.00926435117339</v>
+      </c>
+      <c r="K4">
+        <v>1.028852644648525</v>
+      </c>
+      <c r="L4">
+        <v>1.009091298923285</v>
+      </c>
+      <c r="M4">
+        <v>1.006333092772</v>
+      </c>
+      <c r="N4">
+        <v>1.010697622316295</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.00643368087013</v>
+      </c>
+      <c r="D5">
+        <v>1.026478881439717</v>
+      </c>
+      <c r="E5">
+        <v>1.008184407704152</v>
+      </c>
+      <c r="F5">
+        <v>1.00582415859297</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.028167412619662</v>
+      </c>
+      <c r="J5">
+        <v>1.011011261408891</v>
+      </c>
+      <c r="K5">
+        <v>1.028934856412294</v>
+      </c>
+      <c r="L5">
+        <v>1.010687449890045</v>
+      </c>
+      <c r="M5">
+        <v>1.008333407787024</v>
+      </c>
+      <c r="N5">
+        <v>1.012447013364704</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.006743857377935</v>
+      </c>
+      <c r="D6">
+        <v>1.026501430639359</v>
+      </c>
+      <c r="E6">
+        <v>1.008460757943759</v>
+      </c>
+      <c r="F6">
+        <v>1.006168372622093</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.028169846008701</v>
+      </c>
+      <c r="J6">
+        <v>1.011303152326119</v>
+      </c>
+      <c r="K6">
+        <v>1.028948554567337</v>
+      </c>
+      <c r="L6">
+        <v>1.01095410685342</v>
+      </c>
+      <c r="M6">
+        <v>1.008667723380766</v>
+      </c>
+      <c r="N6">
+        <v>1.012739318800514</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.004602525622243</v>
+      </c>
+      <c r="D7">
+        <v>1.026345821692126</v>
+      </c>
+      <c r="E7">
+        <v>1.006552642781277</v>
+      </c>
+      <c r="F7">
+        <v>1.003792402070271</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.028152706365015</v>
+      </c>
+      <c r="J7">
+        <v>1.009287789686426</v>
+      </c>
+      <c r="K7">
+        <v>1.028853750235325</v>
+      </c>
+      <c r="L7">
+        <v>1.009112717611803</v>
+      </c>
+      <c r="M7">
+        <v>1.006359925650492</v>
+      </c>
+      <c r="N7">
+        <v>1.010721094114708</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>0.9954301051588915</v>
+      </c>
+      <c r="D8">
+        <v>1.02568157912909</v>
+      </c>
+      <c r="E8">
+        <v>0.9983715088152648</v>
+      </c>
+      <c r="F8">
+        <v>0.993623487805529</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.028070942867339</v>
+      </c>
+      <c r="J8">
+        <v>1.00064817868472</v>
+      </c>
+      <c r="K8">
+        <v>1.028442245416833</v>
+      </c>
+      <c r="L8">
+        <v>1.001212489949779</v>
+      </c>
+      <c r="M8">
+        <v>0.9964789233214655</v>
+      </c>
+      <c r="N8">
+        <v>1.002069213874403</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>0.9783205764612979</v>
+      </c>
+      <c r="D9">
+        <v>1.024459342914767</v>
+      </c>
+      <c r="E9">
+        <v>0.9830817382785806</v>
+      </c>
+      <c r="F9">
+        <v>0.9746875594148453</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.027888906352644</v>
+      </c>
+      <c r="J9">
+        <v>0.9845060212834819</v>
+      </c>
+      <c r="K9">
+        <v>1.027660033183786</v>
+      </c>
+      <c r="L9">
+        <v>0.9864271902042485</v>
+      </c>
+      <c r="M9">
+        <v>0.9780640366811924</v>
+      </c>
+      <c r="N9">
+        <v>0.9859041327581235</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>0.966159120324894</v>
+      </c>
+      <c r="D10">
+        <v>1.023610008354521</v>
+      </c>
+      <c r="E10">
+        <v>0.9721943220809653</v>
+      </c>
+      <c r="F10">
+        <v>0.9612490314044084</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.027742192411911</v>
+      </c>
+      <c r="J10">
+        <v>0.9730138585618151</v>
+      </c>
+      <c r="K10">
+        <v>1.027100466945094</v>
+      </c>
+      <c r="L10">
+        <v>0.9758845337612366</v>
+      </c>
+      <c r="M10">
+        <v>0.9649848447286592</v>
+      </c>
+      <c r="N10">
+        <v>0.9743956498472226</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>0.9606831415645073</v>
+      </c>
+      <c r="D11">
+        <v>1.02323410637176</v>
+      </c>
+      <c r="E11">
+        <v>0.9672875309838622</v>
+      </c>
+      <c r="F11">
+        <v>0.9552027903459976</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.027672681232816</v>
+      </c>
+      <c r="J11">
+        <v>0.9678348320980014</v>
+      </c>
+      <c r="K11">
+        <v>1.026849189472056</v>
+      </c>
+      <c r="L11">
+        <v>0.97112956630897</v>
+      </c>
+      <c r="M11">
+        <v>0.9590977607796322</v>
+      </c>
+      <c r="N11">
+        <v>0.9692092685717875</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>0.9586145506910082</v>
+      </c>
+      <c r="D12">
+        <v>1.023093261465666</v>
+      </c>
+      <c r="E12">
+        <v>0.9654332964499098</v>
+      </c>
+      <c r="F12">
+        <v>0.9529194695819285</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.027645965106242</v>
+      </c>
+      <c r="J12">
+        <v>0.9658777490661349</v>
+      </c>
+      <c r="K12">
+        <v>1.026754508480711</v>
+      </c>
+      <c r="L12">
+        <v>0.9693321597485967</v>
+      </c>
+      <c r="M12">
+        <v>0.9568741640828985</v>
+      </c>
+      <c r="N12">
+        <v>0.9672494062575352</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>0.9590598874230633</v>
+      </c>
+      <c r="D13">
+        <v>1.023123528240741</v>
+      </c>
+      <c r="E13">
+        <v>0.9658325149312958</v>
+      </c>
+      <c r="F13">
+        <v>0.9534110037213531</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.027651736342749</v>
+      </c>
+      <c r="J13">
+        <v>0.9662991100629652</v>
+      </c>
+      <c r="K13">
+        <v>1.026774878692961</v>
+      </c>
+      <c r="L13">
+        <v>0.9697191678918762</v>
+      </c>
+      <c r="M13">
+        <v>0.9573528585443665</v>
+      </c>
+      <c r="N13">
+        <v>0.9676713656353118</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>0.9605128752060893</v>
+      </c>
+      <c r="D14">
+        <v>1.023222488916405</v>
+      </c>
+      <c r="E14">
+        <v>0.9671349216314452</v>
+      </c>
+      <c r="F14">
+        <v>0.9550148356480366</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.027670491146582</v>
+      </c>
+      <c r="J14">
+        <v>0.9676737575683367</v>
+      </c>
+      <c r="K14">
+        <v>1.02684139053416</v>
+      </c>
+      <c r="L14">
+        <v>0.9709816451978783</v>
+      </c>
+      <c r="M14">
+        <v>0.9589147300863431</v>
+      </c>
+      <c r="N14">
+        <v>0.9690479652978151</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>0.9614034314727273</v>
+      </c>
+      <c r="D15">
+        <v>1.023283300548352</v>
+      </c>
+      <c r="E15">
+        <v>0.9679330985122259</v>
+      </c>
+      <c r="F15">
+        <v>0.9559979364329391</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.027681927861244</v>
+      </c>
+      <c r="J15">
+        <v>0.9685162099568203</v>
+      </c>
+      <c r="K15">
+        <v>1.026882192518688</v>
+      </c>
+      <c r="L15">
+        <v>0.9717552794304384</v>
+      </c>
+      <c r="M15">
+        <v>0.9598720602737167</v>
+      </c>
+      <c r="N15">
+        <v>0.969891614065321</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>0.9665178694539471</v>
+      </c>
+      <c r="D16">
+        <v>1.023634784689578</v>
+      </c>
+      <c r="E16">
+        <v>0.9725156901775738</v>
+      </c>
+      <c r="F16">
+        <v>0.9616452370859042</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.027746679784027</v>
+      </c>
+      <c r="J16">
+        <v>0.9733530614536017</v>
+      </c>
+      <c r="K16">
+        <v>1.027116954522249</v>
+      </c>
+      <c r="L16">
+        <v>0.976195883662468</v>
+      </c>
+      <c r="M16">
+        <v>0.9653705685715845</v>
+      </c>
+      <c r="N16">
+        <v>0.9747353344460225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>0.9696677839963934</v>
+      </c>
+      <c r="D17">
+        <v>1.023853086440131</v>
+      </c>
+      <c r="E17">
+        <v>0.975336883953685</v>
+      </c>
+      <c r="F17">
+        <v>0.9651245671890961</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.027785696793538</v>
+      </c>
+      <c r="J17">
+        <v>0.9763308548856949</v>
+      </c>
+      <c r="K17">
+        <v>1.027261812832632</v>
+      </c>
+      <c r="L17">
+        <v>0.9789287275559527</v>
+      </c>
+      <c r="M17">
+        <v>0.9687575661130877</v>
+      </c>
+      <c r="N17">
+        <v>0.9777173566863469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>0.9714850378471849</v>
+      </c>
+      <c r="D18">
+        <v>1.023979633048865</v>
+      </c>
+      <c r="E18">
+        <v>0.9769640686024228</v>
+      </c>
+      <c r="F18">
+        <v>0.967132319282564</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.027807877329808</v>
+      </c>
+      <c r="J18">
+        <v>0.9780483928416045</v>
+      </c>
+      <c r="K18">
+        <v>1.027345439387671</v>
+      </c>
+      <c r="L18">
+        <v>0.9805046204782536</v>
+      </c>
+      <c r="M18">
+        <v>0.9707118006498168</v>
+      </c>
+      <c r="N18">
+        <v>0.9794373337431582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>0.9721013613780306</v>
+      </c>
+      <c r="D19">
+        <v>1.024022648879112</v>
+      </c>
+      <c r="E19">
+        <v>0.9775158578081515</v>
+      </c>
+      <c r="F19">
+        <v>0.9678133277376976</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.027815342305294</v>
+      </c>
+      <c r="J19">
+        <v>0.978630827294583</v>
+      </c>
+      <c r="K19">
+        <v>1.027373806722036</v>
+      </c>
+      <c r="L19">
+        <v>0.981038959968239</v>
+      </c>
+      <c r="M19">
+        <v>0.9713746164040274</v>
+      </c>
+      <c r="N19">
+        <v>0.9800205953198662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>0.9693319212360824</v>
+      </c>
+      <c r="D20">
+        <v>1.023829745906674</v>
+      </c>
+      <c r="E20">
+        <v>0.9750361152217983</v>
+      </c>
+      <c r="F20">
+        <v>0.9647535334624762</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.027781570346447</v>
+      </c>
+      <c r="J20">
+        <v>0.9760133879045572</v>
+      </c>
+      <c r="K20">
+        <v>1.027246360539083</v>
+      </c>
+      <c r="L20">
+        <v>0.978637412617706</v>
+      </c>
+      <c r="M20">
+        <v>0.9683964033044213</v>
+      </c>
+      <c r="N20">
+        <v>0.9773994388656819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>0.9600859869466861</v>
+      </c>
+      <c r="D21">
+        <v>1.023193381061207</v>
+      </c>
+      <c r="E21">
+        <v>0.9667522921095373</v>
+      </c>
+      <c r="F21">
+        <v>0.9545436105721294</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.027664993056494</v>
+      </c>
+      <c r="J21">
+        <v>0.9672699041061134</v>
+      </c>
+      <c r="K21">
+        <v>1.026821841561942</v>
+      </c>
+      <c r="L21">
+        <v>0.9706107614573473</v>
+      </c>
+      <c r="M21">
+        <v>0.9584558439532331</v>
+      </c>
+      <c r="N21">
+        <v>0.9686435383173526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>0.9540709107520832</v>
+      </c>
+      <c r="D22">
+        <v>1.022786227006253</v>
+      </c>
+      <c r="E22">
+        <v>0.9613592925291401</v>
+      </c>
+      <c r="F22">
+        <v>0.9479054187673437</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.027586509990163</v>
+      </c>
+      <c r="J22">
+        <v>0.9615777981805639</v>
+      </c>
+      <c r="K22">
+        <v>1.026547147649343</v>
+      </c>
+      <c r="L22">
+        <v>0.9653819973732639</v>
+      </c>
+      <c r="M22">
+        <v>0.9519905601641876</v>
+      </c>
+      <c r="N22">
+        <v>0.9629433489484955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>0.9572798556983286</v>
+      </c>
+      <c r="D23">
+        <v>1.023002733729557</v>
+      </c>
+      <c r="E23">
+        <v>0.9642367247431528</v>
+      </c>
+      <c r="F23">
+        <v>0.9514464178477567</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.027628606217047</v>
+      </c>
+      <c r="J23">
+        <v>0.9646148121753957</v>
+      </c>
+      <c r="K23">
+        <v>1.026693504457307</v>
+      </c>
+      <c r="L23">
+        <v>0.9681721051668799</v>
+      </c>
+      <c r="M23">
+        <v>0.9554395349172436</v>
+      </c>
+      <c r="N23">
+        <v>0.9659846758515501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>0.9694837448603313</v>
+      </c>
+      <c r="D24">
+        <v>1.023840294915894</v>
+      </c>
+      <c r="E24">
+        <v>0.9751720762327452</v>
+      </c>
+      <c r="F24">
+        <v>0.9649212543907153</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.027783436694908</v>
+      </c>
+      <c r="J24">
+        <v>0.9761568971781776</v>
+      </c>
+      <c r="K24">
+        <v>1.027253345444725</v>
+      </c>
+      <c r="L24">
+        <v>0.9787691011244772</v>
+      </c>
+      <c r="M24">
+        <v>0.968559662948978</v>
+      </c>
+      <c r="N24">
+        <v>0.9775431519389318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>0.9828674098098618</v>
+      </c>
+      <c r="D25">
+        <v>1.024781422877931</v>
+      </c>
+      <c r="E25">
+        <v>0.9871483364053398</v>
+      </c>
+      <c r="F25">
+        <v>0.9797160724965627</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.027940447854658</v>
+      </c>
+      <c r="J25">
+        <v>0.988798886372216</v>
+      </c>
+      <c r="K25">
+        <v>1.027868987877461</v>
+      </c>
+      <c r="L25">
+        <v>0.9903620470570647</v>
+      </c>
+      <c r="M25">
+        <v>0.982955958318781</v>
+      </c>
+      <c r="N25">
+        <v>0.9902030942076822</v>
       </c>
     </row>
   </sheetData>
